--- a/peaks.xlsx
+++ b/peaks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Grad School/Summer-Research-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833BE12C-B65A-F34B-BA5F-2124D2EBA32C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21E124C-2DED-A142-8748-BDBF0A4C8783}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="4360" windowWidth="28040" windowHeight="17440" xr2:uid="{6958187F-5AE0-1844-8257-E41FB26193D4}"/>
+    <workbookView xWindow="5440" yWindow="440" windowWidth="32960" windowHeight="12740" xr2:uid="{6958187F-5AE0-1844-8257-E41FB26193D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>SN2007K</t>
   </si>
@@ -36,15 +36,104 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Peak</t>
+    <t>3737 1</t>
+  </si>
+  <si>
+    <t>3737 2</t>
+  </si>
+  <si>
+    <t>3737 3</t>
+  </si>
+  <si>
+    <t>3737 4</t>
+  </si>
+  <si>
+    <t>Aperture</t>
+  </si>
+  <si>
+    <t>3746 2</t>
+  </si>
+  <si>
+    <t>3746 3</t>
+  </si>
+  <si>
+    <t>3746 4</t>
+  </si>
+  <si>
+    <t>Peak (Gaussian)</t>
+  </si>
+  <si>
+    <t>3746 1 </t>
+  </si>
+  <si>
+    <t>definitely some outliers</t>
+  </si>
+  <si>
+    <t>BD174708</t>
+  </si>
+  <si>
+    <t>SN2006bo</t>
+  </si>
+  <si>
+    <t>SN2006bo 2</t>
+  </si>
+  <si>
+    <t>070122_IIn</t>
+  </si>
+  <si>
+    <t>DEIMOS_060427_Iin</t>
+  </si>
+  <si>
+    <t>3674 2</t>
+  </si>
+  <si>
+    <t>BD284211</t>
+  </si>
+  <si>
+    <t>DEIMOS_061223_Iin</t>
+  </si>
+  <si>
+    <t>SN2005kd</t>
+  </si>
+  <si>
+    <t>SN2005kd 2</t>
+  </si>
+  <si>
+    <t>3915 2</t>
+  </si>
+  <si>
+    <t>3940 2</t>
+  </si>
+  <si>
+    <t>DEIMOS_101107_Iin</t>
+  </si>
+  <si>
+    <t>SN2010jl</t>
+  </si>
+  <si>
+    <t>weird standard star</t>
+  </si>
+  <si>
+    <t>remeasured gaussian</t>
+  </si>
+  <si>
+    <t>actual peak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,9 +163,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -92,6 +179,6718 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SN2006bo/BD174708 - Gaussian Fit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>882.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>925.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>897.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>925.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6663.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6663.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6663.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6663.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A4F-AE46-A550-17982680144C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="340590960"/>
+        <c:axId val="340560368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="340590960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340560368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="340560368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340590960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SN2005kd/BD284211</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>885.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>882.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>882.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>885.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>883.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6655.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6655.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6655.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6655.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6655.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D8E-3E4B-BCE4-A6050C10E8C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="382283008"/>
+        <c:axId val="382251328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="382283008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382251328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="382251328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382283008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SN2005kd/BD284211 (small peak)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>411.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>408.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>407.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6655.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6655.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6655.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3A8-034F-A649-FECA2149588C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="343344128"/>
+        <c:axId val="343345808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="343344128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343345808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="343345808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343344128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SN2010jl/BD174708</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>682.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>681.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>680.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>681.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>681.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$47:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6633.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6633.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6633.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6633.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6633.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3771-514B-A47F-79D1C21E2EBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="343124704"/>
+        <c:axId val="343126384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="343124704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343126384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="343126384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343124704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SN2006bo/BD174708 - Gaussian</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Fit</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>874.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>809.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>825.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>848.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>872.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>872.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>898.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>918.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>931.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6702.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6702.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6702.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6702.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6702.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6702.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6702.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6702.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6702.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-791D-6440-B28F-72CC1E51498C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>874.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>809.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>825.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>848.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>872.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>872.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>898.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>918.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>931.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6702.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6702.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6702.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6702.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6702.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6702.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6702.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6702.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6702.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-791D-6440-B28F-72CC1E51498C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="381882800"/>
+        <c:axId val="382166304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="381882800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382166304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="382166304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381882800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SN2006bo/BD174708 - Gaussian</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Fit 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>874.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>809.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>825.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>848.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>872.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>872.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>898.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>918.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>931.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6702.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6702.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6702.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6702.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6702.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6702.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6702.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6702.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6702.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBFC-EE43-A787-7B933F42830C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="381882800"/>
+        <c:axId val="382166304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="381882800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382166304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="382166304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381882800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SN2006bo/BD174708 - Actual Peaks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>874.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>809.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>825.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>848.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>872.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>872.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>898.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>918.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>931.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6701.1679999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6701.1639999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6701.1719999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6701.1819999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6701.183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6701.1880000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6701.1779999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6701.1779999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6701.1750000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C5F-3145-A030-5C4163A0B227}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="381882800"/>
+        <c:axId val="382166304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="381882800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382166304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="382166304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381882800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SN2006bo/BD174708 - Gaussian Fit 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>882.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>925.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>897.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>925.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6663.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6663.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6663.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6663.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8923-D64A-816A-ED300FF38170}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="340590960"/>
+        <c:axId val="340560368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="340590960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340560368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="340560368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340590960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SN2006bo/BD174708 - Actual Peaks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>882.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>925.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>897.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>925.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$19:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6664.5609999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6664.5550000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6664.5460000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6664.5550000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20C7-0440-A141-40F39C5DE375}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="340590960"/>
+        <c:axId val="340560368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="340590960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340560368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="340560368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340590960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01135E86-40D8-E443-BAF1-0DFC07654929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7352EF4-0E7F-EB49-99D0-93E0F940F33B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6979A14-23B5-7B4F-A860-46FE7EF461FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52F816E-CD13-C54B-8460-CD6F7CB0F925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE46C25-6832-FA43-8B8B-CAECA29A8B46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1261BA2D-2D20-594D-8D42-5AA0DDDB23C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5192A53D-DA2E-2C40-804C-30AC9F9AFE6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2299170-13FA-C84B-8946-F30666603AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0879546F-F0F7-FC48-82C6-5A9C2DA5CF4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,40 +7190,480 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BCA93B-D641-BD47-9E17-CC4C8C3C0999}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>874.93</v>
+      </c>
+      <c r="C3">
+        <v>6702.25</v>
+      </c>
+      <c r="D3">
+        <v>6702.23</v>
+      </c>
+      <c r="E3">
+        <v>6701.1679999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>809.56</v>
+      </c>
+      <c r="C4">
+        <v>6702.07</v>
+      </c>
+      <c r="D4">
+        <v>6702.16</v>
+      </c>
+      <c r="E4">
+        <v>6701.1639999999998</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>825.84</v>
+      </c>
+      <c r="C5">
+        <v>6702.56</v>
+      </c>
+      <c r="D5">
+        <v>6702.18</v>
+      </c>
+      <c r="E5">
+        <v>6701.1719999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>848.03</v>
+      </c>
+      <c r="C6">
+        <v>6702.21</v>
+      </c>
+      <c r="D6">
+        <v>6702.23</v>
+      </c>
+      <c r="E6">
+        <v>6701.1819999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>872.55</v>
+      </c>
+      <c r="C7">
         <v>6702.12</v>
+      </c>
+      <c r="D7">
+        <v>6702.19</v>
+      </c>
+      <c r="E7">
+        <v>6701.183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>872.05</v>
+      </c>
+      <c r="C8">
+        <v>6702.26</v>
+      </c>
+      <c r="D8">
+        <v>6702.14</v>
+      </c>
+      <c r="E8">
+        <v>6701.1880000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>898.36</v>
+      </c>
+      <c r="C9">
+        <v>6702.37</v>
+      </c>
+      <c r="D9">
+        <v>6702.15</v>
+      </c>
+      <c r="E9">
+        <v>6701.1779999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>918.14</v>
+      </c>
+      <c r="C10">
+        <v>6702.41</v>
+      </c>
+      <c r="D10">
+        <v>6702.26</v>
+      </c>
+      <c r="E10">
+        <v>6701.1779999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>931.95</v>
+      </c>
+      <c r="C11">
+        <v>6702.03</v>
+      </c>
+      <c r="D11">
+        <v>6702.41</v>
+      </c>
+      <c r="E11">
+        <v>6701.1750000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>882.05</v>
+      </c>
+      <c r="C19">
+        <v>6663.28</v>
+      </c>
+      <c r="D19">
+        <v>6663.48</v>
+      </c>
+      <c r="E19">
+        <v>6664.5609999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>925.73</v>
+      </c>
+      <c r="C20">
+        <v>6663.69</v>
+      </c>
+      <c r="D20">
+        <v>6663.56</v>
+      </c>
+      <c r="E20">
+        <v>6664.5550000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>3674</v>
+      </c>
+      <c r="B21">
+        <v>897.91</v>
+      </c>
+      <c r="C21">
+        <v>6663.53</v>
+      </c>
+      <c r="D21">
+        <v>6663.43</v>
+      </c>
+      <c r="E21">
+        <v>6664.5460000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>925.21</v>
+      </c>
+      <c r="C22">
+        <v>6663.54</v>
+      </c>
+      <c r="D22">
+        <v>6663.54</v>
+      </c>
+      <c r="E22">
+        <v>6664.5550000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>885.23</v>
+      </c>
+      <c r="C32">
+        <v>6655.34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>3668</v>
+      </c>
+      <c r="B33">
+        <v>882.53</v>
+      </c>
+      <c r="C33">
+        <v>6655.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>3696</v>
+      </c>
+      <c r="B34">
+        <v>882.86</v>
+      </c>
+      <c r="C34">
+        <v>6655.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>3915</v>
+      </c>
+      <c r="B35">
+        <v>885.49</v>
+      </c>
+      <c r="C35">
+        <v>6655.26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3940</v>
+      </c>
+      <c r="B36">
+        <v>883.16</v>
+      </c>
+      <c r="C36">
+        <v>6655.53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>411.62</v>
+      </c>
+      <c r="C38">
+        <v>6655.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39">
+        <v>408.04</v>
+      </c>
+      <c r="C39">
+        <v>6655.07</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40">
+        <v>407.32</v>
+      </c>
+      <c r="C40">
+        <v>6655.18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47">
+        <v>682.12</v>
+      </c>
+      <c r="C47">
+        <v>6633.27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3539</v>
+      </c>
+      <c r="B48">
+        <v>681.35</v>
+      </c>
+      <c r="C48">
+        <v>6633.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3572</v>
+      </c>
+      <c r="B49">
+        <v>680.97</v>
+      </c>
+      <c r="C49">
+        <v>6633.08</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3786</v>
+      </c>
+      <c r="B50">
+        <v>681.23</v>
+      </c>
+      <c r="C50">
+        <v>6633.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3810</v>
+      </c>
+      <c r="B51">
+        <v>681.42</v>
+      </c>
+      <c r="C51">
+        <v>6633.19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>